--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12700"/>
+    <workbookView windowWidth="28800" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Test_User_Lend" sheetId="1" r:id="rId1"/>
-    <sheet name="Test_User_Reng" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_Prd_List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>case_name</t>
   </si>
@@ -32,6 +32,9 @@
     <t>expect_res</t>
   </si>
   <si>
+    <t>msg</t>
+  </si>
+  <si>
     <t>test_user_lend_normal</t>
   </si>
   <si>
@@ -41,40 +44,172 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"userId":"85174","token":"49e42d6f6b9a48b89d4cff03a86ea822","planProductId":"10243","investAmt":"100"}</t>
+    <t>{"userId":"85175","token":"2f9f6003bbc34d8c866e87cd11d4adc2","planProductId":"10243","investAmt":"100"}</t>
+  </si>
+  <si>
+    <t>成功，必填项请求</t>
+  </si>
+  <si>
+    <t>正常场景</t>
   </si>
   <si>
     <t>test_user_lend_nologin</t>
   </si>
   <si>
-    <t>{"userId":"85174","token":"","planProductId":"10243","investAmt":"100"}</t>
-  </si>
-  <si>
-    <t>test_user_lend_nologin_t</t>
-  </si>
-  <si>
-    <t>test_user_lend_nologin_three</t>
-  </si>
-  <si>
-    <t>test_user_lend_nologin_four</t>
-  </si>
-  <si>
-    <t>test_user_lend_nologin_five</t>
-  </si>
-  <si>
-    <t>test_user_reng_normal</t>
-  </si>
-  <si>
-    <t>https://test.weiyangpuhui.com/if/invest/prdOrder/saveAsync.htm</t>
-  </si>
-  <si>
-    <t>{"userId":"85174","token":"49e42d6f6b9a48b89d4cff03a86ea822","prdClaimsId":"111883","investAmt":"100"}</t>
-  </si>
-  <si>
-    <t>test_user_reng_nologin</t>
-  </si>
-  <si>
-    <t>{"userId":"85174","token":"","prdClaimsId":"111883","investAmt":"100"}</t>
+    <t>{"userId":"85175","token":"","planProductId":"10243","investAmt":"10000","couponId":"1179031","couponType":"2"}</t>
+  </si>
+  <si>
+    <t>未登录，token空</t>
+  </si>
+  <si>
+    <t>必填项一项为空</t>
+  </si>
+  <si>
+    <t>test_user_lend_noPlanPrdId</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"","investAmt":"10000","couponId":"1179031","couponType":"2"}</t>
+  </si>
+  <si>
+    <t>计划信息不存在，产品id为空</t>
+  </si>
+  <si>
+    <t>test_user_lend_noInvestAmt</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"","couponId":"1179031","couponType":"2"}</t>
+  </si>
+  <si>
+    <t>服务器处理错误，加入金额为空</t>
+  </si>
+  <si>
+    <t>test_user_lend_nocouponType</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"10000","couponId":"1179031","couponType":""}</t>
+  </si>
+  <si>
+    <t>该产品正在维护，请稍后重试，优惠券type为空</t>
+  </si>
+  <si>
+    <t>非必填，缺一项，但是优惠券id和type是有关联关系的</t>
+  </si>
+  <si>
+    <t>test_user_lend_wrongPrdId</t>
+  </si>
+  <si>
+    <t>{"UserId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","PLANPRODUCTIDlanProductId":"10243","investAmt":"10000"}</t>
+  </si>
+  <si>
+    <t>计划信息不存在，产品id错误</t>
+  </si>
+  <si>
+    <t>参数书写错误</t>
+  </si>
+  <si>
+    <t>test_user_lend_wrongcouponID_value</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"10000","couponId":"1999999","couponType":"2"}</t>
+  </si>
+  <si>
+    <t>该产品正在维护，请稍后重试；优惠券id错误</t>
+  </si>
+  <si>
+    <t>参数值错误</t>
+  </si>
+  <si>
+    <t>test_user_lend_minInvestAmt</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"99.99"}</t>
+  </si>
+  <si>
+    <t>计划最小加入金额为100元，加入最小金额</t>
+  </si>
+  <si>
+    <t>限制</t>
+  </si>
+  <si>
+    <t>test_user_lend_maxInvestAmt</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"100000000"}</t>
+  </si>
+  <si>
+    <t>账户余额不足，用户最大可加入金额</t>
+  </si>
+  <si>
+    <t>test_user_lend_noSigning</t>
+  </si>
+  <si>
+    <t>{"userId":"84090","token":"bd3d76237153420d9103fd741a91e6a6","planProductId":"10243","investAmt":"100"}</t>
+  </si>
+  <si>
+    <t>没有签约</t>
+  </si>
+  <si>
+    <t>业务场景校验</t>
+  </si>
+  <si>
+    <t>test_user_lend_norisk</t>
+  </si>
+  <si>
+    <t>{"userId":"85137","token":"3669836dc049429ea005dbec30470573","planProductId":"10243","investAmt":"100"}</t>
+  </si>
+  <si>
+    <t>没有风险测评</t>
+  </si>
+  <si>
+    <t>test_user_lend_descParameter</t>
+  </si>
+  <si>
+    <t>{"investAmt":"100","planProductId":"10243","token":"2f9f6003bbc34d8c866e87cd11d4adc2","userId":"85175"}</t>
+  </si>
+  <si>
+    <t>成功，参数倒叙组合</t>
+  </si>
+  <si>
+    <t>z正常场景+参数顺序</t>
+  </si>
+  <si>
+    <t>test_user_lend_nocouponIdType</t>
+  </si>
+  <si>
+    <t>{"userId":"85175","token":"2f9f6003bbc34d8c866e87cd11d4adc2","planProductId":"10243","investAmt":"10000","couponId":"1179031","couponType":"2"}</t>
+  </si>
+  <si>
+    <t>成功，加非必填项优惠券id和type</t>
+  </si>
+  <si>
+    <t>正常场景+非空</t>
+  </si>
+  <si>
+    <t>test_prd_list_normal</t>
+  </si>
+  <si>
+    <t>https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm</t>
+  </si>
+  <si>
+    <t>{"userId":"85174","token":"49e42d6f6b9a48b89d4cff03a86ea822","status":"1","page":"1","rows":"4"}</t>
+  </si>
+  <si>
+    <t>test_prd_list_nologin</t>
+  </si>
+  <si>
+    <t>{"userId":"85174","token":"","status":"1","page":"1","rows":"4"}</t>
+  </si>
+  <si>
+    <t>test_prd_list_nouserId</t>
+  </si>
+  <si>
+    <t>{"userId":"","token":"49e42d6f6b9a48b89d4cff03a86ea822","status":"1","page":"1","rows":"4"}</t>
+  </si>
+  <si>
+    <t>test_prd_list_wrongstatus</t>
+  </si>
+  <si>
+    <t>{"userId":"85174","token":"49e42d6f6b9a48b89d4cff03a86ea822","status":"3","page":"1","rows":"4"}</t>
   </si>
 </sst>
 </file>
@@ -82,17 +217,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,9 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,13 +270,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,8 +283,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,85 +375,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,181 +397,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +582,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,11 +618,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,230 +676,186 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1028,139 +1176,342 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.6" customWidth="1"/>
-    <col min="2" max="2" width="61.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="7.46666666666667" customWidth="1"/>
-    <col min="4" max="4" width="76" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="1" width="38.2666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61.6666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.46666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="159.333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.1333333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="53.8" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.06666666666667" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>21308</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12017</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>500</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12017</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22507</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22706</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
         <v>23188</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>21308</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21312</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>21308</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21308</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>21308</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>21308</v>
-      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="2:2">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:2">
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1168,8 +1519,15 @@
     <hyperlink ref="B3" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
     <hyperlink ref="B4" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
     <hyperlink ref="B5" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B12" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B10" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
     <hyperlink ref="B6" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
-    <hyperlink ref="B7" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
+    <hyperlink ref="B8" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalOrder/save.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1179,15 +1537,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.9333333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.4" customWidth="1"/>
     <col min="2" max="2" width="64.8" customWidth="1"/>
     <col min="3" max="3" width="7.46666666666667" customWidth="1"/>
     <col min="4" max="4" width="113.8" customWidth="1"/>
@@ -1213,42 +1571,90 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E2">
-        <v>22505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>21308</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://test.weiyangpuhui.com/if/invest/prdOrder/saveAsync.htm" tooltip="https://test.weiyangpuhui.com/if/invest/prdOrder/saveAsync.htm"/>
-    <hyperlink ref="B3" r:id="rId1" display="https://test.weiyangpuhui.com/if/invest/prdOrder/saveAsync.htm" tooltip="https://test.weiyangpuhui.com/if/invest/prdOrder/saveAsync.htm"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm" tooltip="https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13300"/>
+    <workbookView windowWidth="28800" windowHeight="13300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test_User_Lend" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"2f9f6003bbc34d8c866e87cd11d4adc2","planProductId":"10243","investAmt":"100"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"100"}</t>
   </si>
   <si>
     <t>成功，必填项请求</t>
@@ -56,7 +56,7 @@
     <t>test_user_lend_nologin</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"","planProductId":"10243","investAmt":"10000","couponId":"1179031","couponType":"2"}</t>
+    <t>{"userId":"85175","token":"","planProductId":"10243","investAmt":"100","couponId":"1179031","couponType":"2"}</t>
   </si>
   <si>
     <t>未登录，token空</t>
@@ -68,7 +68,7 @@
     <t>test_user_lend_noPlanPrdId</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"","investAmt":"10000","couponId":"1179031","couponType":"2"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"","investAmt":"100","couponId":"1179031","couponType":"2"}</t>
   </si>
   <si>
     <t>计划信息不存在，产品id为空</t>
@@ -77,7 +77,7 @@
     <t>test_user_lend_noInvestAmt</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"","couponId":"1179031","couponType":"2"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"","couponId":"1179031","couponType":"2"}</t>
   </si>
   <si>
     <t>服务器处理错误，加入金额为空</t>
@@ -86,7 +86,7 @@
     <t>test_user_lend_nocouponType</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"10000","couponId":"1179031","couponType":""}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"100","couponId":"1179031","couponType":""}</t>
   </si>
   <si>
     <t>该产品正在维护，请稍后重试，优惠券type为空</t>
@@ -98,7 +98,7 @@
     <t>test_user_lend_wrongPrdId</t>
   </si>
   <si>
-    <t>{"UserId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","PLANPRODUCTIDlanProductId":"10243","investAmt":"10000"}</t>
+    <t>{"UserId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","PLANPRODUCTIDlanProductId":"10243","investAmt":"100"}</t>
   </si>
   <si>
     <t>计划信息不存在，产品id错误</t>
@@ -110,7 +110,7 @@
     <t>test_user_lend_wrongcouponID_value</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"10000","couponId":"1999999","couponType":"2"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"100","couponId":"1999999","couponType":"2"}</t>
   </si>
   <si>
     <t>该产品正在维护，请稍后重试；优惠券id错误</t>
@@ -122,7 +122,7 @@
     <t>test_user_lend_minInvestAmt</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"99.99"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"99.99"}</t>
   </si>
   <si>
     <t>计划最小加入金额为100元，加入最小金额</t>
@@ -134,7 +134,7 @@
     <t>test_user_lend_maxInvestAmt</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"02bd33f3a33e40ce82b2eaf58e3eda0b","planProductId":"10243","investAmt":"100000000"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"1000000"}</t>
   </si>
   <si>
     <t>账户余额不足，用户最大可加入金额</t>
@@ -143,7 +143,7 @@
     <t>test_user_lend_noSigning</t>
   </si>
   <si>
-    <t>{"userId":"84090","token":"bd3d76237153420d9103fd741a91e6a6","planProductId":"10243","investAmt":"100"}</t>
+    <t>{"userId":"84090","token":"37dd266000e340c887a7e32d48c96986","planProductId":"10243","investAmt":"100"}</t>
   </si>
   <si>
     <t>没有签约</t>
@@ -155,7 +155,7 @@
     <t>test_user_lend_norisk</t>
   </si>
   <si>
-    <t>{"userId":"85137","token":"3669836dc049429ea005dbec30470573","planProductId":"10243","investAmt":"100"}</t>
+    <t>{"userId":"85137","token":"96da70ac03054e1bb3e6fcc18ee926bf","planProductId":"10243","investAmt":"100"}</t>
   </si>
   <si>
     <t>没有风险测评</t>
@@ -164,7 +164,7 @@
     <t>test_user_lend_descParameter</t>
   </si>
   <si>
-    <t>{"investAmt":"100","planProductId":"10243","token":"2f9f6003bbc34d8c866e87cd11d4adc2","userId":"85175"}</t>
+    <t>{"investAmt":"100","planProductId":"10243","token":"e86aae6c55a7415287f64f7841e2c5c4","userId":"85175"}</t>
   </si>
   <si>
     <t>成功，参数倒叙组合</t>
@@ -176,7 +176,7 @@
     <t>test_user_lend_nocouponIdType</t>
   </si>
   <si>
-    <t>{"userId":"85175","token":"2f9f6003bbc34d8c866e87cd11d4adc2","planProductId":"10243","investAmt":"10000","couponId":"1179031","couponType":"2"}</t>
+    <t>{"userId":"85175","token":"e86aae6c55a7415287f64f7841e2c5c4","planProductId":"10243","investAmt":"1000","couponId":"1179103","couponType":"2"}</t>
   </si>
   <si>
     <t>成功，加非必填项优惠券id和type</t>
@@ -191,7 +191,7 @@
     <t>https://test.weiyangpuhui.com/if/plan/capitalInfo/productList.htm</t>
   </si>
   <si>
-    <t>{"userId":"85174","token":"49e42d6f6b9a48b89d4cff03a86ea822","status":"1","page":"1","rows":"4"}</t>
+    <t>{"userId":"85174","token":"e86aae6c55a7415287f64f7841e2c5c4","status":"1","page":"1","rows":"4"}</t>
   </si>
   <si>
     <t>test_prd_list_nologin</t>
@@ -203,13 +203,13 @@
     <t>test_prd_list_nouserId</t>
   </si>
   <si>
-    <t>{"userId":"","token":"49e42d6f6b9a48b89d4cff03a86ea822","status":"1","page":"1","rows":"4"}</t>
+    <t>{"userId":"","token":"e86aae6c55a7415287f64f7841e2c5c4","status":"1","page":"1","rows":"4"}</t>
   </si>
   <si>
     <t>test_prd_list_wrongstatus</t>
   </si>
   <si>
-    <t>{"userId":"85174","token":"49e42d6f6b9a48b89d4cff03a86ea822","status":"3","page":"1","rows":"4"}</t>
+    <t>{"userId":"85174","token":"e86aae6c55a7415287f64f7841e2c5c4","status":"3","page":"1","rows":"4"}</t>
   </si>
 </sst>
 </file>
@@ -217,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -275,6 +275,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -284,10 +314,47 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,38 +368,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,42 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,181 +397,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,15 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -618,27 +609,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -659,6 +633,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,156 +682,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="6"/>
@@ -1539,8 +1539,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="4"/>
